--- a/BackTest/2019-10-28 BackTest RNT.xlsx
+++ b/BackTest/2019-10-28 BackTest RNT.xlsx
@@ -451,17 +451,13 @@
         <v>12.08</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>12.11</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>12.14</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>12.175</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>12.205</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>12.25</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,22 +661,14 @@
         <v>12.285</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -744,22 +696,14 @@
         <v>12.31</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -787,22 +731,14 @@
         <v>12.32</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -830,22 +766,14 @@
         <v>12.34</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -873,22 +801,14 @@
         <v>12.375</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -916,22 +836,14 @@
         <v>12.415</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -959,22 +871,14 @@
         <v>12.45</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1002,22 +906,14 @@
         <v>12.49</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1045,22 +941,14 @@
         <v>12.525</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1088,22 +976,14 @@
         <v>12.54</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1131,22 +1011,14 @@
         <v>12.55</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1174,22 +1046,14 @@
         <v>12.55</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1217,22 +1081,14 @@
         <v>12.55</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1260,22 +1116,14 @@
         <v>12.55</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1303,22 +1151,14 @@
         <v>12.55</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1346,22 +1186,14 @@
         <v>12.54</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1389,22 +1221,14 @@
         <v>12.53</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1432,22 +1256,14 @@
         <v>12.52</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1475,22 +1291,14 @@
         <v>12.515</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1326,14 @@
         <v>12.495</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1561,22 +1361,14 @@
         <v>12.475</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K28" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1604,22 +1396,14 @@
         <v>12.48</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K29" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1647,22 +1431,14 @@
         <v>12.495</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1690,22 +1466,14 @@
         <v>12.495</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K31" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1733,22 +1501,14 @@
         <v>12.475</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1776,22 +1536,14 @@
         <v>12.45</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1819,22 +1571,14 @@
         <v>12.44</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1862,22 +1606,14 @@
         <v>12.425</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K35" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1905,22 +1641,14 @@
         <v>12.405</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K36" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1948,22 +1676,14 @@
         <v>12.395</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K37" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1991,22 +1711,14 @@
         <v>12.395</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K38" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2034,22 +1746,14 @@
         <v>12.395</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K39" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2077,22 +1781,14 @@
         <v>12.395</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K40" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2120,22 +1816,14 @@
         <v>12.39</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2163,22 +1851,14 @@
         <v>12.38499999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K42" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2206,22 +1886,14 @@
         <v>12.39</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K43" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2258,13 +1930,9 @@
         <v>12.3</v>
       </c>
       <c r="K44" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>12.3</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2292,20 +1960,18 @@
         <v>12.37999999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -2341,14 +2007,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="K46" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -2384,14 +2050,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="K47" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M47" t="n">
@@ -2427,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="K48" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2464,16 +2130,14 @@
         <v>12.37499999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2513,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="K50" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2556,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="K51" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2599,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="K52" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2642,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="K53" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2679,16 +2343,14 @@
         <v>12.40999999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2722,16 +2384,14 @@
         <v>12.40499999999999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2765,16 +2425,14 @@
         <v>12.40999999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2808,16 +2466,14 @@
         <v>12.41499999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2851,16 +2507,14 @@
         <v>12.42499999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2894,16 +2548,14 @@
         <v>12.43499999999999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2937,16 +2589,14 @@
         <v>12.44499999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2980,16 +2630,14 @@
         <v>12.45999999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -3023,16 +2671,14 @@
         <v>12.47999999999999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3066,16 +2712,14 @@
         <v>12.49499999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3109,16 +2753,14 @@
         <v>12.51499999999999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3152,16 +2794,14 @@
         <v>12.52999999999999</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3195,16 +2835,14 @@
         <v>12.54499999999999</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3238,16 +2876,14 @@
         <v>12.54499999999999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3281,16 +2917,14 @@
         <v>12.55999999999998</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3324,16 +2958,14 @@
         <v>12.55999999999998</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3367,16 +2999,14 @@
         <v>12.55999999999998</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3410,16 +3040,14 @@
         <v>12.56499999999999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3453,16 +3081,14 @@
         <v>12.56999999999999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3496,16 +3122,14 @@
         <v>12.56999999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3539,16 +3163,14 @@
         <v>12.56499999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3582,16 +3204,14 @@
         <v>12.56999999999999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3625,16 +3245,14 @@
         <v>12.56999999999999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3668,16 +3286,14 @@
         <v>12.57499999999999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3711,16 +3327,14 @@
         <v>12.56999999999999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3754,16 +3368,14 @@
         <v>12.56999999999999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3797,16 +3409,14 @@
         <v>12.56499999999999</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3840,16 +3450,14 @@
         <v>12.55999999999999</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3883,16 +3491,14 @@
         <v>12.54999999999999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3926,16 +3532,14 @@
         <v>12.53999999999999</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3969,16 +3573,14 @@
         <v>12.52999999999999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -4012,16 +3614,14 @@
         <v>12.52999999999999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -4055,16 +3655,14 @@
         <v>12.51999999999999</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4098,16 +3696,14 @@
         <v>12.52499999999999</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4141,16 +3737,14 @@
         <v>12.52499999999999</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4184,16 +3778,14 @@
         <v>12.52999999999999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4227,16 +3819,14 @@
         <v>12.53999999999999</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4270,16 +3860,14 @@
         <v>12.54999999999999</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4313,16 +3901,14 @@
         <v>12.55999999999999</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4356,16 +3942,14 @@
         <v>12.56999999999999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4399,16 +3983,14 @@
         <v>12.58499999999999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4442,16 +4024,14 @@
         <v>12.60499999999999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4485,16 +4065,14 @@
         <v>12.61999999999999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4535,7 +4113,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4576,7 +4154,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4617,7 +4195,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4658,7 +4236,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4699,7 +4277,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4740,7 +4318,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4781,7 +4359,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4822,7 +4400,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4856,14 +4434,16 @@
         <v>12.70499999999999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>12.8</v>
+      </c>
       <c r="K105" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4897,14 +4477,16 @@
         <v>12.72499999999999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>12.8</v>
+      </c>
       <c r="K106" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4938,14 +4520,16 @@
         <v>12.74499999999999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>12.8</v>
+      </c>
       <c r="K107" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4979,14 +4563,16 @@
         <v>12.75999999999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>12.9</v>
+      </c>
       <c r="K108" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -5020,14 +4606,16 @@
         <v>12.77999999999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>13</v>
+      </c>
       <c r="K109" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -5061,14 +4649,16 @@
         <v>12.78999999999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>12.9</v>
+      </c>
       <c r="K110" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -5109,7 +4699,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5150,7 +4740,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5191,7 +4781,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5232,7 +4822,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5273,7 +4863,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5314,7 +4904,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5355,7 +4945,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5396,7 +4986,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5437,7 +5027,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5478,7 +5068,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5519,7 +5109,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5560,7 +5150,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5601,7 +5191,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5642,7 +5232,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5683,7 +5273,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5724,7 +5314,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5765,7 +5355,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5806,7 +5396,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5847,7 +5437,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5888,7 +5478,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5929,7 +5519,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5970,7 +5560,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -6011,7 +5601,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -6052,7 +5642,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -6093,7 +5683,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -6134,7 +5724,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -6175,7 +5765,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -6216,7 +5806,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6257,7 +5847,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6298,7 +5888,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6339,7 +5929,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6380,7 +5970,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6421,7 +6011,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6462,7 +6052,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6503,7 +6093,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6544,7 +6134,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6585,7 +6175,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6626,7 +6216,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6667,7 +6257,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6701,14 +6291,16 @@
         <v>13.53999999999999</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>13.5</v>
+      </c>
       <c r="K150" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6742,14 +6334,16 @@
         <v>13.51999999999999</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>13.4</v>
+      </c>
       <c r="K151" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6783,14 +6377,16 @@
         <v>13.49499999999999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>13.4</v>
+      </c>
       <c r="K152" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6824,14 +6420,16 @@
         <v>13.46499999999999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>13.4</v>
+      </c>
       <c r="K153" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6865,14 +6463,16 @@
         <v>13.44499999999999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>13.4</v>
+      </c>
       <c r="K154" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6906,14 +6506,16 @@
         <v>13.42999999999999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>13.6</v>
+      </c>
       <c r="K155" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6947,14 +6549,16 @@
         <v>13.42499999999999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>13.6</v>
+      </c>
       <c r="K156" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6995,7 +6599,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -7036,7 +6640,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -7077,7 +6681,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -7118,7 +6722,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -7159,7 +6763,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -7200,7 +6804,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -7241,7 +6845,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -7282,7 +6886,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -7323,7 +6927,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -7364,7 +6968,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -7405,7 +7009,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -7446,7 +7050,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -7487,7 +7091,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -7528,7 +7132,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -7569,7 +7173,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -7610,7 +7214,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -7647,19 +7251,19 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>1</v>
+        <v>1.263292682926829</v>
       </c>
     </row>
     <row r="174">
@@ -7691,14 +7295,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7732,14 +7330,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7773,14 +7365,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7814,14 +7400,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7855,14 +7435,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7896,14 +7470,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7934,19 +7502,13 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
-        <v>1.320396825396825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -7975,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
@@ -8045,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
@@ -8080,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
@@ -8500,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -8812,14 +8374,20 @@
         <v>16.60499999999999</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>16.5</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8854,7 +8422,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8882,14 +8454,20 @@
         <v>16.53499999999999</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8917,14 +8495,20 @@
         <v>16.525</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>16.7</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8952,14 +8536,20 @@
         <v>16.51499999999999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>16.7</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8987,14 +8577,20 @@
         <v>16.51499999999999</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>16.8</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -9022,14 +8618,20 @@
         <v>16.52999999999999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>17</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -9057,14 +8659,20 @@
         <v>16.55</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>17.1</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -9099,7 +8707,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -9127,14 +8739,20 @@
         <v>16.64</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>18.1</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -9162,14 +8780,20 @@
         <v>16.7</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>17.8</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9197,14 +8821,20 @@
         <v>16.77</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>18</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9232,17 +8862,21 @@
         <v>16.865</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>18.2</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9270,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
@@ -9305,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
@@ -9340,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
@@ -9375,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
@@ -9410,7 +9044,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
@@ -9445,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest RNT.xlsx
+++ b/BackTest/2019-10-28 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-690921.7749999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-690921.7749999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>11.9</v>
@@ -521,7 +521,7 @@
         <v>-690921.7749999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>11.9</v>
@@ -2746,10 +2746,14 @@
         <v>1494808.041425</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J71" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
@@ -2779,11 +2783,19 @@
         <v>1494818.041425</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J72" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2812,11 +2824,19 @@
         <v>1475818.041425</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2845,10 +2865,14 @@
         <v>1514566.957425</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J74" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
@@ -2881,8 +2905,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2914,8 +2944,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2947,8 +2983,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2977,11 +3019,19 @@
         <v>1456917.587386316</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J78" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3010,11 +3060,19 @@
         <v>1454455.587386316</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J79" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3043,11 +3101,19 @@
         <v>1454455.587386316</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J80" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3076,11 +3142,19 @@
         <v>1454455.587386316</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3109,11 +3183,19 @@
         <v>1454377.984086316</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J82" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3142,11 +3224,19 @@
         <v>1458457.177634703</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3175,11 +3265,19 @@
         <v>1458457.177634703</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J84" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3208,11 +3306,19 @@
         <v>1460410.857634703</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3241,11 +3347,19 @@
         <v>1454030.857634703</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3274,11 +3388,19 @@
         <v>1454030.857634703</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J87" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3307,11 +3429,19 @@
         <v>1455871.177634703</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3340,11 +3470,19 @@
         <v>1451491.177634703</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3373,11 +3511,19 @@
         <v>1432538.677634703</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J90" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3406,11 +3552,19 @@
         <v>1432538.677634703</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J91" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3439,11 +3593,19 @@
         <v>1437035.027634703</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J92" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3472,11 +3634,19 @@
         <v>1437035.027634703</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J93" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3505,11 +3675,19 @@
         <v>1434905.027634703</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J94" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3538,11 +3716,19 @@
         <v>1434905.027634703</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J95" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3571,11 +3757,19 @@
         <v>1441609.448534703</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J96" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3604,11 +3798,19 @@
         <v>1435159.448534703</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J97" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3637,11 +3839,19 @@
         <v>1435159.448534703</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J98" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3670,11 +3880,19 @@
         <v>1435159.448534703</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3703,11 +3921,19 @@
         <v>1431951.008534703</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J100" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3736,11 +3962,19 @@
         <v>1437249.578534703</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3769,11 +4003,19 @@
         <v>1346428.208534703</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J102" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3802,11 +4044,19 @@
         <v>1346428.208534703</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J103" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3835,11 +4085,19 @@
         <v>1346428.208534703</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J104" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3868,11 +4126,19 @@
         <v>1362864.088534703</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3901,11 +4167,19 @@
         <v>1362864.088534703</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J106" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3934,11 +4208,19 @@
         <v>1349588.590034703</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J107" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3967,11 +4249,19 @@
         <v>1360570.060034703</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J108" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4000,11 +4290,19 @@
         <v>1363490.060034703</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J109" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4033,11 +4331,19 @@
         <v>1363490.060034703</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J110" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4066,11 +4372,19 @@
         <v>1343019.060034703</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J111" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4099,11 +4413,19 @@
         <v>1385196.819334703</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J112" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4132,11 +4454,19 @@
         <v>1385196.819334703</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J113" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4165,11 +4495,19 @@
         <v>1340343.436734703</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J114" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4198,11 +4536,19 @@
         <v>1343363.436734703</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J115" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4231,11 +4577,19 @@
         <v>1343363.436734703</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J116" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4267,8 +4621,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4300,8 +4660,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4333,8 +4699,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4366,8 +4738,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4399,8 +4777,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4432,8 +4816,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4465,8 +4855,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4498,8 +4894,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4531,8 +4933,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4564,8 +4972,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4597,8 +5011,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4630,8 +5050,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4663,8 +5089,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4693,11 +5125,19 @@
         <v>1381128.510134703</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J130" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4726,11 +5166,19 @@
         <v>1381128.510134703</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J131" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4759,11 +5207,19 @@
         <v>1419974.303734703</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J132" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4792,11 +5248,19 @@
         <v>1338621.464634703</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J133" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4825,11 +5289,19 @@
         <v>1338621.464634703</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J134" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4858,11 +5330,19 @@
         <v>1338621.464634703</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J135" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4891,11 +5371,19 @@
         <v>1338621.464634703</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J136" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4924,11 +5412,19 @@
         <v>1338621.464634703</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J137" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4957,11 +5453,19 @@
         <v>1338631.464634703</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J138" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4993,8 +5497,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5023,11 +5533,19 @@
         <v>1313228.238834703</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J140" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5059,8 +5577,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5092,8 +5616,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5122,11 +5652,19 @@
         <v>1313228.238834703</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J143" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5155,11 +5693,19 @@
         <v>1314793.556295021</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J144" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5188,11 +5734,19 @@
         <v>1247175.936295021</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J145" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5221,11 +5775,19 @@
         <v>1247175.936295021</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J146" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5254,11 +5816,19 @@
         <v>1307754.475895021</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J147" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5287,11 +5857,19 @@
         <v>1318260.477063837</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J148" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5320,11 +5898,19 @@
         <v>1318260.477063837</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J149" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5353,11 +5939,19 @@
         <v>1318260.477063837</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J150" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5386,11 +5980,19 @@
         <v>1318260.477063837</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J151" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5422,8 +6024,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5455,8 +6063,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5488,8 +6102,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5521,8 +6141,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5554,8 +6180,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5587,8 +6219,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5620,8 +6258,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5653,8 +6297,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5686,8 +6336,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5719,8 +6375,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5752,8 +6414,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5785,8 +6453,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5818,8 +6492,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5851,8 +6531,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5884,8 +6570,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5917,8 +6609,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5950,8 +6648,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5983,8 +6687,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6016,8 +6726,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6049,8 +6765,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6082,8 +6804,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6115,8 +6843,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6148,8 +6882,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6181,8 +6921,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6214,8 +6960,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6247,8 +6999,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6280,8 +7038,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6313,8 +7077,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6346,8 +7116,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6379,8 +7155,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6412,8 +7194,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6445,8 +7233,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6478,8 +7272,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6511,8 +7311,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6544,8 +7350,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6577,8 +7389,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6610,8 +7428,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6643,8 +7467,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6676,8 +7506,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6709,8 +7545,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6742,8 +7584,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6775,8 +7623,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6808,8 +7662,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6841,8 +7701,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6874,8 +7740,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6907,8 +7779,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6940,8 +7818,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6973,8 +7857,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7006,8 +7896,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7039,8 +7935,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7072,8 +7974,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7105,8 +8013,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7138,8 +8052,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7171,8 +8091,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7204,8 +8130,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7237,8 +8169,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7270,8 +8208,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7303,8 +8247,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7336,8 +8286,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7369,8 +8325,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7402,8 +8364,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7435,8 +8403,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7468,8 +8442,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7501,8 +8481,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7534,8 +8520,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7567,8 +8559,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7600,8 +8598,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7633,8 +8637,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7666,8 +8676,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7699,8 +8715,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7732,8 +8754,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7765,8 +8793,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7798,8 +8832,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7831,8 +8871,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7864,8 +8910,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7897,8 +8949,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7930,8 +8988,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7963,8 +9027,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7996,8 +9066,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8029,8 +9105,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8062,8 +9144,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8095,8 +9183,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8128,8 +9222,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8161,8 +9261,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8194,8 +9300,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8227,8 +9339,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8257,11 +9375,17 @@
         <v>9689249.131034352</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8293,8 +9417,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8326,8 +9456,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8359,8 +9495,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8392,8 +9534,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8425,8 +9573,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8455,11 +9609,17 @@
         <v>9212299.260764724</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8488,11 +9648,17 @@
         <v>7982071.192971621</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8521,11 +9687,17 @@
         <v>7249467.200071621</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8557,8 +9729,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8590,8 +9768,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8623,8 +9807,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8653,11 +9843,17 @@
         <v>7792586.664124562</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8686,11 +9882,17 @@
         <v>6984179.335924562</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8719,11 +9921,17 @@
         <v>6984179.335924562</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8752,11 +9960,17 @@
         <v>6984189.335924562</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8785,11 +9999,17 @@
         <v>6088320.119124562</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8821,8 +10041,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8854,8 +10080,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8887,8 +10119,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8917,11 +10155,17 @@
         <v>6191317.576297733</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8953,8 +10197,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8986,8 +10236,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9019,8 +10275,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9052,8 +10314,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9085,8 +10353,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9118,8 +10392,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9151,8 +10431,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9184,8 +10470,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9217,8 +10509,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9250,8 +10548,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9283,8 +10587,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9316,8 +10626,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9349,8 +10665,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9382,8 +10704,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9415,8 +10743,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9445,15 +10779,23 @@
         <v>11387007.66181199</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+        <v>1.41232283464567</v>
+      </c>
+      <c r="M274" t="n">
+        <v>1.084745762711864</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9478,7 +10820,7 @@
         <v>12551357.26341199</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9544,7 +10886,7 @@
         <v>13039450.70901198</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9577,7 +10919,7 @@
         <v>13530243.28465604</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9643,7 +10985,7 @@
         <v>12909533.63475604</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9676,7 +11018,7 @@
         <v>12249904.92475604</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9709,7 +11051,7 @@
         <v>13698018.83125604</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9742,7 +11084,7 @@
         <v>13584462.16575604</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9775,7 +11117,7 @@
         <v>13903318.53725604</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9808,7 +11150,7 @@
         <v>13565554.15885604</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9841,7 +11183,7 @@
         <v>13131653.19425604</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9874,7 +11216,7 @@
         <v>13496442.42255604</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9907,7 +11249,7 @@
         <v>14043079.00085604</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9940,7 +11282,7 @@
         <v>13571490.13755604</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9973,7 +11315,7 @@
         <v>13571490.13755604</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10006,7 +11348,7 @@
         <v>13571490.13755604</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10039,7 +11381,7 @@
         <v>13546918.89175604</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10072,7 +11414,7 @@
         <v>13100164.04845604</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10105,7 +11447,7 @@
         <v>13612830.96365604</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10138,7 +11480,7 @@
         <v>13926988.30420829</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10171,7 +11513,7 @@
         <v>13836610.90080829</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10204,7 +11546,7 @@
         <v>14249848.86324465</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10237,7 +11579,7 @@
         <v>14184381.15344465</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10270,7 +11612,7 @@
         <v>14286497.18674465</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10303,7 +11645,7 @@
         <v>14254169.50478102</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10336,7 +11678,7 @@
         <v>14348052.74338102</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10369,7 +11711,7 @@
         <v>14348052.74338102</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10402,7 +11744,7 @@
         <v>14348016.77338102</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10435,7 +11777,7 @@
         <v>14164090.10978102</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10732,7 +12074,7 @@
         <v>11344578.9624724</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10765,7 +12107,7 @@
         <v>11344445.9899724</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10798,7 +12140,7 @@
         <v>11612383.64392449</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10831,7 +12173,7 @@
         <v>11612383.64392449</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10864,7 +12206,7 @@
         <v>12939550.53252449</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10897,7 +12239,7 @@
         <v>12584093.20622449</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10930,7 +12272,7 @@
         <v>12187032.44754354</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10963,7 +12305,7 @@
         <v>12187032.44754354</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10996,7 +12338,7 @@
         <v>11750437.36324354</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11029,7 +12371,7 @@
         <v>11801316.49764354</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11062,7 +12404,7 @@
         <v>10895235.18644354</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11095,7 +12437,7 @@
         <v>10895235.18644354</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11128,7 +12470,7 @@
         <v>11153540.51724354</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11161,7 +12503,7 @@
         <v>11020750.98114354</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11194,7 +12536,7 @@
         <v>11020750.98114354</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11227,7 +12569,7 @@
         <v>11080380.16694354</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11260,7 +12602,7 @@
         <v>10940320.65964354</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11293,7 +12635,7 @@
         <v>10940320.65964354</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11326,7 +12668,7 @@
         <v>11023791.70044354</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11623,7 +12965,7 @@
         <v>11077969.71344354</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11656,7 +12998,7 @@
         <v>11077969.71344354</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11689,7 +13031,7 @@
         <v>11077969.71344354</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11722,7 +13064,7 @@
         <v>11016814.73674354</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11755,7 +13097,7 @@
         <v>11044165.16034354</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11788,7 +13130,7 @@
         <v>11291761.76194354</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11821,7 +13163,7 @@
         <v>11291761.76194354</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11854,7 +13196,7 @@
         <v>12008108.64634354</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11887,7 +13229,7 @@
         <v>12962409.50254354</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11920,7 +13262,7 @@
         <v>13629681.39804354</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11953,7 +13295,7 @@
         <v>13454151.89854354</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12019,7 +13361,7 @@
         <v>12946810.03674354</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12052,7 +13394,7 @@
         <v>13629219.94034354</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12085,7 +13427,7 @@
         <v>12885882.78114915</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12118,7 +13460,7 @@
         <v>12885882.78114915</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12151,7 +13493,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12217,7 +13559,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12250,7 +13592,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12283,7 +13625,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12316,7 +13658,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12349,7 +13691,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12382,7 +13724,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12415,7 +13757,7 @@
         <v>12666233.17431927</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12448,7 +13790,7 @@
         <v>12354647.84921927</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12481,7 +13823,7 @@
         <v>12493095.10451927</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12514,7 +13856,7 @@
         <v>12528192.65666985</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12547,7 +13889,7 @@
         <v>11992362.05966985</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12580,7 +13922,7 @@
         <v>12047708.87776985</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12613,7 +13955,7 @@
         <v>11695908.54916985</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12646,7 +13988,7 @@
         <v>11822786.21916985</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12679,7 +14021,7 @@
         <v>11727258.28536985</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12712,7 +14054,7 @@
         <v>11671348.76036984</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12745,7 +14087,7 @@
         <v>11430594.30116984</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12778,7 +14120,7 @@
         <v>10573989.35586984</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12811,7 +14153,7 @@
         <v>10573989.35586984</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12844,7 +14186,7 @@
         <v>11262894.10416984</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12877,7 +14219,7 @@
         <v>11144570.52606984</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12910,7 +14252,7 @@
         <v>11258108.27806984</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12943,7 +14285,7 @@
         <v>11455052.21746984</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12976,7 +14318,7 @@
         <v>11455052.21746984</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13438,7 +14780,7 @@
         <v>12254054.27573359</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13471,7 +14813,7 @@
         <v>12358976.28563359</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13504,7 +14846,7 @@
         <v>12358976.28563359</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13570,7 +14912,7 @@
         <v>12388354.28009405</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13603,7 +14945,7 @@
         <v>12739304.19343359</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13636,7 +14978,7 @@
         <v>12739304.19343359</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13669,7 +15011,7 @@
         <v>12734284.19343359</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13702,7 +15044,7 @@
         <v>12734284.19343359</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13735,7 +15077,7 @@
         <v>12734284.19343359</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13768,7 +15110,7 @@
         <v>12734284.19343359</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13801,7 +15143,7 @@
         <v>13108288.50053359</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13834,7 +15176,7 @@
         <v>13698704.19433359</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13867,7 +15209,7 @@
         <v>13385960.67873359</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13900,7 +15242,7 @@
         <v>13065162.89403359</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13933,7 +15275,7 @@
         <v>13002951.61763359</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13966,7 +15308,7 @@
         <v>13002981.61763359</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13999,7 +15341,7 @@
         <v>12565268.74533359</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14032,7 +15374,7 @@
         <v>13306393.12803359</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14065,7 +15407,7 @@
         <v>13306393.12803359</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14098,7 +15440,7 @@
         <v>13306393.12803359</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14131,7 +15473,7 @@
         <v>13545818.51403359</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14164,7 +15506,7 @@
         <v>13182236.65923359</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14197,7 +15539,7 @@
         <v>12735442.99473359</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14230,7 +15572,7 @@
         <v>12824378.45553358</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14263,7 +15605,7 @@
         <v>12837898.87553358</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14296,7 +15638,7 @@
         <v>12701186.35283358</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14329,7 +15671,7 @@
         <v>12498050.85613358</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14362,7 +15704,7 @@
         <v>12498050.85613358</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14395,7 +15737,7 @@
         <v>12417056.26223358</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14428,7 +15770,7 @@
         <v>12602129.62403358</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14461,7 +15803,7 @@
         <v>12600574.48013358</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14494,7 +15836,7 @@
         <v>12606921.95153358</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14527,7 +15869,7 @@
         <v>12572767.99153358</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14560,7 +15902,7 @@
         <v>12572789.99153358</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14593,7 +15935,7 @@
         <v>12467414.50483358</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14626,7 +15968,7 @@
         <v>12467414.50483358</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14659,7 +16001,7 @@
         <v>12467414.50483358</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14692,7 +16034,7 @@
         <v>12607465.15583358</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14725,7 +16067,7 @@
         <v>12434545.23393358</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14758,7 +16100,7 @@
         <v>12434545.23393358</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14791,7 +16133,7 @@
         <v>12434545.23393358</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14824,7 +16166,7 @@
         <v>12434545.23393358</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15088,7 +16430,7 @@
         <v>11637490.84229116</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15121,7 +16463,7 @@
         <v>11602356.26259116</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15154,7 +16496,7 @@
         <v>11602356.26259116</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15187,7 +16529,7 @@
         <v>11373763.92379116</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15220,7 +16562,7 @@
         <v>11373763.92379116</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15253,7 +16595,7 @@
         <v>11708193.51429116</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15286,7 +16628,7 @@
         <v>11595794.08929116</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15319,7 +16661,7 @@
         <v>11595794.08929116</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15352,7 +16694,7 @@
         <v>11825691.79259116</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15385,7 +16727,7 @@
         <v>11965548.35839116</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15418,7 +16760,7 @@
         <v>11945056.76149116</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15451,7 +16793,7 @@
         <v>11945056.76149116</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15484,7 +16826,7 @@
         <v>11945066.76149116</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15517,7 +16859,7 @@
         <v>11575825.08719116</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15550,7 +16892,7 @@
         <v>11575825.08719116</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15583,7 +16925,7 @@
         <v>11161963.17329116</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15616,7 +16958,7 @@
         <v>11432409.09039116</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15649,7 +16991,7 @@
         <v>11291001.28689116</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15682,7 +17024,7 @@
         <v>11291001.28689116</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15715,7 +17057,7 @@
         <v>11473609.59139116</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15726,6 +17068,6 @@
       <c r="M464" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest RNT.xlsx
+++ b/BackTest/2019-10-28 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -521,11 +521,9 @@
         <v>-690921.7749999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>11.9</v>
       </c>
@@ -2746,14 +2744,10 @@
         <v>1494808.041425</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J71" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
@@ -2783,19 +2777,11 @@
         <v>1494818.041425</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J72" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2824,19 +2810,11 @@
         <v>1475818.041425</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2865,14 +2843,10 @@
         <v>1514566.957425</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J74" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
@@ -2905,14 +2879,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2944,14 +2912,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2983,14 +2945,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3019,19 +2975,11 @@
         <v>1456917.587386316</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J78" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3060,19 +3008,11 @@
         <v>1454455.587386316</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J79" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3101,19 +3041,11 @@
         <v>1454455.587386316</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J80" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3142,19 +3074,11 @@
         <v>1454455.587386316</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J81" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3183,19 +3107,11 @@
         <v>1454377.984086316</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J82" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3224,19 +3140,11 @@
         <v>1458457.177634703</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J83" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3265,19 +3173,11 @@
         <v>1458457.177634703</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3306,19 +3206,11 @@
         <v>1460410.857634703</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J85" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3347,19 +3239,11 @@
         <v>1454030.857634703</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3388,19 +3272,11 @@
         <v>1454030.857634703</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J87" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3429,19 +3305,11 @@
         <v>1455871.177634703</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J88" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3470,19 +3338,11 @@
         <v>1451491.177634703</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3511,19 +3371,11 @@
         <v>1432538.677634703</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J90" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3552,19 +3404,11 @@
         <v>1432538.677634703</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J91" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3593,19 +3437,11 @@
         <v>1437035.027634703</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J92" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3634,19 +3470,11 @@
         <v>1437035.027634703</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J93" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3675,19 +3503,11 @@
         <v>1434905.027634703</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J94" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3716,19 +3536,11 @@
         <v>1434905.027634703</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J95" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3757,19 +3569,11 @@
         <v>1441609.448534703</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J96" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3798,19 +3602,11 @@
         <v>1435159.448534703</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3839,19 +3635,11 @@
         <v>1435159.448534703</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3880,19 +3668,11 @@
         <v>1435159.448534703</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J99" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3921,19 +3701,11 @@
         <v>1431951.008534703</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J100" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3962,19 +3734,11 @@
         <v>1437249.578534703</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4003,19 +3767,11 @@
         <v>1346428.208534703</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J102" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4044,19 +3800,11 @@
         <v>1346428.208534703</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J103" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4085,19 +3833,11 @@
         <v>1346428.208534703</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J104" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4126,19 +3866,11 @@
         <v>1362864.088534703</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J105" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4167,19 +3899,11 @@
         <v>1362864.088534703</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J106" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4208,19 +3932,11 @@
         <v>1349588.590034703</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J107" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4249,19 +3965,11 @@
         <v>1360570.060034703</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J108" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4290,19 +3998,11 @@
         <v>1363490.060034703</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J109" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4331,19 +4031,11 @@
         <v>1363490.060034703</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J110" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4372,19 +4064,11 @@
         <v>1343019.060034703</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J111" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4413,19 +4097,11 @@
         <v>1385196.819334703</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J112" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4454,19 +4130,11 @@
         <v>1385196.819334703</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J113" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4495,19 +4163,11 @@
         <v>1340343.436734703</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J114" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4536,19 +4196,11 @@
         <v>1343363.436734703</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J115" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4577,19 +4229,11 @@
         <v>1343363.436734703</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J116" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4621,14 +4265,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4660,14 +4298,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4699,14 +4331,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4738,14 +4364,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4777,14 +4397,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4816,14 +4430,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4855,14 +4463,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4894,14 +4496,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4933,14 +4529,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4972,14 +4562,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5011,14 +4595,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5050,14 +4628,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5089,14 +4661,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5125,19 +4691,11 @@
         <v>1381128.510134703</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J130" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5166,19 +4724,11 @@
         <v>1381128.510134703</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J131" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5207,19 +4757,11 @@
         <v>1419974.303734703</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J132" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5248,19 +4790,11 @@
         <v>1338621.464634703</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J133" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5289,19 +4823,11 @@
         <v>1338621.464634703</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J134" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5330,19 +4856,11 @@
         <v>1338621.464634703</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J135" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5371,19 +4889,11 @@
         <v>1338621.464634703</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J136" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5412,19 +4922,11 @@
         <v>1338621.464634703</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J137" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5453,19 +4955,11 @@
         <v>1338631.464634703</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J138" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5497,14 +4991,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5533,19 +5021,11 @@
         <v>1313228.238834703</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J140" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5577,14 +5057,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5616,14 +5090,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5652,19 +5120,11 @@
         <v>1313228.238834703</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J143" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5693,19 +5153,11 @@
         <v>1314793.556295021</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J144" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5734,19 +5186,11 @@
         <v>1247175.936295021</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J145" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5775,19 +5219,11 @@
         <v>1247175.936295021</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J146" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5816,19 +5252,11 @@
         <v>1307754.475895021</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J147" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5857,19 +5285,11 @@
         <v>1318260.477063837</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J148" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5898,19 +5318,11 @@
         <v>1318260.477063837</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J149" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5939,19 +5351,11 @@
         <v>1318260.477063837</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J150" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5980,19 +5384,11 @@
         <v>1318260.477063837</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J151" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6024,14 +5420,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6063,14 +5453,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6102,14 +5486,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6141,14 +5519,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6180,14 +5552,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6219,14 +5585,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6258,14 +5618,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6297,14 +5651,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6336,14 +5684,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6375,14 +5717,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6414,14 +5750,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6453,14 +5783,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6492,14 +5816,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6531,14 +5849,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6570,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6609,14 +5915,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6648,14 +5948,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6687,14 +5981,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6726,14 +6014,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6765,14 +6047,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6804,14 +6080,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6843,14 +6113,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6882,14 +6146,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6921,14 +6179,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6960,14 +6212,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6999,14 +6245,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7038,14 +6278,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7077,14 +6311,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7116,14 +6344,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7155,14 +6377,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7194,14 +6410,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7233,14 +6443,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7272,14 +6476,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7311,14 +6509,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7350,14 +6542,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7389,14 +6575,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7428,14 +6608,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7467,14 +6641,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7506,14 +6674,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7545,14 +6707,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7584,14 +6740,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7623,14 +6773,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7662,14 +6806,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7701,14 +6839,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7740,14 +6872,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7779,14 +6905,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7818,14 +6938,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7857,14 +6971,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7896,14 +7004,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7935,14 +7037,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7974,14 +7070,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8013,14 +7103,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8052,14 +7136,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8091,14 +7169,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8130,14 +7202,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8169,14 +7235,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8208,14 +7268,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8247,14 +7301,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8286,14 +7334,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8325,14 +7367,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8364,14 +7400,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8403,14 +7433,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8442,14 +7466,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8481,14 +7499,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8520,14 +7532,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8559,14 +7565,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8598,14 +7598,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8637,14 +7631,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8676,14 +7664,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8715,14 +7697,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8754,14 +7730,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8793,14 +7763,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8832,14 +7796,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8871,14 +7829,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8910,14 +7862,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8949,14 +7895,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8988,14 +7928,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9027,14 +7961,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9063,17 +7991,11 @@
         <v>6534709.693201018</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9102,17 +8024,11 @@
         <v>6860773.536201018</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9141,17 +8057,11 @@
         <v>6416725.067601018</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9180,17 +8090,11 @@
         <v>6071301.935901018</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9219,17 +8123,11 @@
         <v>6807402.839301018</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9258,17 +8156,11 @@
         <v>5899016.704867685</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9300,14 +8192,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9339,14 +8225,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9378,14 +8258,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9417,14 +8291,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9456,14 +8324,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9495,14 +8357,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9534,14 +8390,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9573,14 +8423,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9612,14 +8456,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9651,14 +8489,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9690,14 +8522,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9729,14 +8555,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9768,14 +8588,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9807,14 +8621,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9846,14 +8654,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9885,14 +8687,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9924,14 +8720,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9963,14 +8753,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10002,14 +8786,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10041,14 +8819,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10080,14 +8852,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10119,14 +8885,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10158,14 +8918,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10197,14 +8951,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10236,14 +8984,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10275,14 +9017,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10314,14 +9050,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10353,14 +9083,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10392,14 +9116,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10431,14 +9149,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10470,14 +9182,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10509,14 +9215,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10548,14 +9248,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10587,14 +9281,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10626,14 +9314,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10665,14 +9347,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10704,14 +9380,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10743,14 +9413,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10779,23 +9443,15 @@
         <v>11387007.66181199</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
-        <v>1.41232283464567</v>
-      </c>
-      <c r="M274" t="n">
-        <v>1.084745762711864</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10820,7 +9476,7 @@
         <v>12551357.26341199</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10886,7 +9542,7 @@
         <v>13039450.70901198</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10919,7 +9575,7 @@
         <v>13530243.28465604</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10985,7 +9641,7 @@
         <v>12909533.63475604</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11018,7 +9674,7 @@
         <v>12249904.92475604</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11051,7 +9707,7 @@
         <v>13698018.83125604</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11084,7 +9740,7 @@
         <v>13584462.16575604</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11117,7 +9773,7 @@
         <v>13903318.53725604</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11150,7 +9806,7 @@
         <v>13565554.15885604</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11183,7 +9839,7 @@
         <v>13131653.19425604</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11216,7 +9872,7 @@
         <v>13496442.42255604</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11249,7 +9905,7 @@
         <v>14043079.00085604</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11282,7 +9938,7 @@
         <v>13571490.13755604</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11315,7 +9971,7 @@
         <v>13571490.13755604</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11348,7 +10004,7 @@
         <v>13571490.13755604</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11381,7 +10037,7 @@
         <v>13546918.89175604</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11414,7 +10070,7 @@
         <v>13100164.04845604</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11447,7 +10103,7 @@
         <v>13612830.96365604</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11480,7 +10136,7 @@
         <v>13926988.30420829</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11513,7 +10169,7 @@
         <v>13836610.90080829</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11546,7 +10202,7 @@
         <v>14249848.86324465</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11579,7 +10235,7 @@
         <v>14184381.15344465</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11612,7 +10268,7 @@
         <v>14286497.18674465</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11645,7 +10301,7 @@
         <v>14254169.50478102</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11678,7 +10334,7 @@
         <v>14348052.74338102</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11711,7 +10367,7 @@
         <v>14348052.74338102</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11744,7 +10400,7 @@
         <v>14348016.77338102</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11777,7 +10433,7 @@
         <v>14164090.10978102</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12074,7 +10730,7 @@
         <v>11344578.9624724</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12107,7 +10763,7 @@
         <v>11344445.9899724</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12140,7 +10796,7 @@
         <v>11612383.64392449</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12173,7 +10829,7 @@
         <v>11612383.64392449</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12206,7 +10862,7 @@
         <v>12939550.53252449</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12239,7 +10895,7 @@
         <v>12584093.20622449</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12272,7 +10928,7 @@
         <v>12187032.44754354</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12305,7 +10961,7 @@
         <v>12187032.44754354</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12338,7 +10994,7 @@
         <v>11750437.36324354</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12371,7 +11027,7 @@
         <v>11801316.49764354</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12404,7 +11060,7 @@
         <v>10895235.18644354</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12437,7 +11093,7 @@
         <v>10895235.18644354</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12470,7 +11126,7 @@
         <v>11153540.51724354</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12503,7 +11159,7 @@
         <v>11020750.98114354</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12536,7 +11192,7 @@
         <v>11020750.98114354</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12569,7 +11225,7 @@
         <v>11080380.16694354</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12602,7 +11258,7 @@
         <v>10940320.65964354</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12635,7 +11291,7 @@
         <v>10940320.65964354</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12668,7 +11324,7 @@
         <v>11023791.70044354</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12965,7 +11621,7 @@
         <v>11077969.71344354</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12998,7 +11654,7 @@
         <v>11077969.71344354</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13031,7 +11687,7 @@
         <v>11077969.71344354</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13064,7 +11720,7 @@
         <v>11016814.73674354</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13097,7 +11753,7 @@
         <v>11044165.16034354</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13130,7 +11786,7 @@
         <v>11291761.76194354</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13163,7 +11819,7 @@
         <v>11291761.76194354</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13196,7 +11852,7 @@
         <v>12008108.64634354</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13229,7 +11885,7 @@
         <v>12962409.50254354</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13262,7 +11918,7 @@
         <v>13629681.39804354</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13559,7 +12215,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13592,7 +12248,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13625,7 +12281,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13658,7 +12314,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13691,7 +12347,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13724,7 +12380,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13757,7 +12413,7 @@
         <v>12666233.17431927</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13790,7 +12446,7 @@
         <v>12354647.84921927</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13823,7 +12479,7 @@
         <v>12493095.10451927</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13856,7 +12512,7 @@
         <v>12528192.65666985</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13889,7 +12545,7 @@
         <v>11992362.05966985</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13922,7 +12578,7 @@
         <v>12047708.87776985</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13955,7 +12611,7 @@
         <v>11695908.54916985</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13988,7 +12644,7 @@
         <v>11822786.21916985</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14021,7 +12677,7 @@
         <v>11727258.28536985</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14054,7 +12710,7 @@
         <v>11671348.76036984</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14087,7 +12743,7 @@
         <v>11430594.30116984</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14120,7 +12776,7 @@
         <v>10573989.35586984</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14153,7 +12809,7 @@
         <v>10573989.35586984</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14186,7 +12842,7 @@
         <v>11262894.10416984</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14219,7 +12875,7 @@
         <v>11144570.52606984</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14252,7 +12908,7 @@
         <v>11258108.27806984</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14285,7 +12941,7 @@
         <v>11455052.21746984</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14318,7 +12974,7 @@
         <v>11455052.21746984</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14978,7 +13634,7 @@
         <v>12739304.19343359</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15011,7 +13667,7 @@
         <v>12734284.19343359</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15044,7 +13700,7 @@
         <v>12734284.19343359</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15077,7 +13733,7 @@
         <v>12734284.19343359</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15110,7 +13766,7 @@
         <v>12734284.19343359</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15143,7 +13799,7 @@
         <v>13108288.50053359</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15176,7 +13832,7 @@
         <v>13698704.19433359</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15209,7 +13865,7 @@
         <v>13385960.67873359</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15242,7 +13898,7 @@
         <v>13065162.89403359</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15275,7 +13931,7 @@
         <v>13002951.61763359</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15308,7 +13964,7 @@
         <v>13002981.61763359</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15341,7 +13997,7 @@
         <v>12565268.74533359</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15374,7 +14030,7 @@
         <v>13306393.12803359</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15407,7 +14063,7 @@
         <v>13306393.12803359</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15440,7 +14096,7 @@
         <v>13306393.12803359</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15473,7 +14129,7 @@
         <v>13545818.51403359</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15506,7 +14162,7 @@
         <v>13182236.65923359</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15539,7 +14195,7 @@
         <v>12735442.99473359</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15572,7 +14228,7 @@
         <v>12824378.45553358</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15605,7 +14261,7 @@
         <v>12837898.87553358</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15638,7 +14294,7 @@
         <v>12701186.35283358</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15671,7 +14327,7 @@
         <v>12498050.85613358</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15704,7 +14360,7 @@
         <v>12498050.85613358</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15737,7 +14393,7 @@
         <v>12417056.26223358</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15770,7 +14426,7 @@
         <v>12602129.62403358</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15803,7 +14459,7 @@
         <v>12600574.48013358</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15836,7 +14492,7 @@
         <v>12606921.95153358</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15869,7 +14525,7 @@
         <v>12572767.99153358</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15902,7 +14558,7 @@
         <v>12572789.99153358</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15935,7 +14591,7 @@
         <v>12467414.50483358</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15968,7 +14624,7 @@
         <v>12467414.50483358</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16001,7 +14657,7 @@
         <v>12467414.50483358</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16034,7 +14690,7 @@
         <v>12607465.15583358</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16067,7 +14723,7 @@
         <v>12434545.23393358</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16100,7 +14756,7 @@
         <v>12434545.23393358</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16133,7 +14789,7 @@
         <v>12434545.23393358</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16166,7 +14822,7 @@
         <v>12434545.23393358</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16430,7 +15086,7 @@
         <v>11637490.84229116</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16463,7 +15119,7 @@
         <v>11602356.26259116</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16496,7 +15152,7 @@
         <v>11602356.26259116</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16529,7 +15185,7 @@
         <v>11373763.92379116</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16562,7 +15218,7 @@
         <v>11373763.92379116</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16595,7 +15251,7 @@
         <v>11708193.51429116</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16628,7 +15284,7 @@
         <v>11595794.08929116</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16661,7 +15317,7 @@
         <v>11595794.08929116</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16694,7 +15350,7 @@
         <v>11825691.79259116</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16727,7 +15383,7 @@
         <v>11965548.35839116</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16760,7 +15416,7 @@
         <v>11945056.76149116</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16793,7 +15449,7 @@
         <v>11945056.76149116</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16826,7 +15482,7 @@
         <v>11945066.76149116</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16859,7 +15515,7 @@
         <v>11575825.08719116</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16892,7 +15548,7 @@
         <v>11575825.08719116</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16925,7 +15581,7 @@
         <v>11161963.17329116</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16958,7 +15614,7 @@
         <v>11432409.09039116</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16991,7 +15647,7 @@
         <v>11291001.28689116</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17024,7 +15680,7 @@
         <v>11291001.28689116</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17057,7 +15713,7 @@
         <v>11473609.59139116</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17068,6 +15724,6 @@
       <c r="M464" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest RNT.xlsx
+++ b/BackTest/2019-10-28 BackTest RNT.xlsx
@@ -7991,7 +7991,7 @@
         <v>6534709.693201018</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8024,7 +8024,7 @@
         <v>6860773.536201018</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8057,7 +8057,7 @@
         <v>6416725.067601018</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8090,7 +8090,7 @@
         <v>6071301.935901018</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8123,7 +8123,7 @@
         <v>6807402.839301018</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8156,7 +8156,7 @@
         <v>5899016.704867685</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9509,7 +9509,7 @@
         <v>12342956.91191198</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9542,7 +9542,7 @@
         <v>13039450.70901198</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9575,7 +9575,7 @@
         <v>13530243.28465604</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9608,7 +9608,7 @@
         <v>12909533.63475604</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9641,7 +9641,7 @@
         <v>12909533.63475604</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9674,7 +9674,7 @@
         <v>12249904.92475604</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9707,7 +9707,7 @@
         <v>13698018.83125604</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9740,7 +9740,7 @@
         <v>13584462.16575604</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9773,7 +9773,7 @@
         <v>13903318.53725604</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9806,7 +9806,7 @@
         <v>13565554.15885604</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9839,7 +9839,7 @@
         <v>13131653.19425604</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9872,7 +9872,7 @@
         <v>13496442.42255604</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9905,7 +9905,7 @@
         <v>14043079.00085604</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9938,7 +9938,7 @@
         <v>13571490.13755604</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9971,7 +9971,7 @@
         <v>13571490.13755604</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10004,7 +10004,7 @@
         <v>13571490.13755604</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10037,7 +10037,7 @@
         <v>13546918.89175604</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10070,7 +10070,7 @@
         <v>13100164.04845604</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10103,7 +10103,7 @@
         <v>13612830.96365604</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10136,7 +10136,7 @@
         <v>13926988.30420829</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10169,7 +10169,7 @@
         <v>13836610.90080829</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10202,7 +10202,7 @@
         <v>14249848.86324465</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10235,7 +10235,7 @@
         <v>14184381.15344465</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10268,7 +10268,7 @@
         <v>14286497.18674465</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10301,7 +10301,7 @@
         <v>14254169.50478102</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10334,7 +10334,7 @@
         <v>14348052.74338102</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10367,7 +10367,7 @@
         <v>14348052.74338102</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10400,7 +10400,7 @@
         <v>14348016.77338102</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10433,7 +10433,7 @@
         <v>14164090.10978102</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10466,7 +10466,7 @@
         <v>13485923.83828101</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10499,7 +10499,7 @@
         <v>12574455.51668102</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10532,7 +10532,7 @@
         <v>12574455.51668102</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10565,7 +10565,7 @@
         <v>12211503.94882897</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10598,7 +10598,7 @@
         <v>11634228.75052897</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10631,7 +10631,7 @@
         <v>11344578.9624724</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11951,7 +11951,7 @@
         <v>13454151.89854354</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11984,7 +11984,7 @@
         <v>13454151.89854354</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12017,7 +12017,7 @@
         <v>12946810.03674354</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12050,7 +12050,7 @@
         <v>13629219.94034354</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12083,7 +12083,7 @@
         <v>12885882.78114915</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12116,7 +12116,7 @@
         <v>12885882.78114915</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12149,7 +12149,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12182,7 +12182,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12215,7 +12215,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12248,7 +12248,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12281,7 +12281,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12314,7 +12314,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12347,7 +12347,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12380,7 +12380,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12413,7 +12413,7 @@
         <v>12666233.17431927</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12545,7 +12545,7 @@
         <v>11992362.05966985</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12578,7 +12578,7 @@
         <v>12047708.87776985</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12611,7 +12611,7 @@
         <v>11695908.54916985</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12644,7 +12644,7 @@
         <v>11822786.21916985</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12677,7 +12677,7 @@
         <v>11727258.28536985</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12710,7 +12710,7 @@
         <v>11671348.76036984</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13865,7 +13865,7 @@
         <v>13385960.67873359</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13898,7 +13898,7 @@
         <v>13065162.89403359</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13931,7 +13931,7 @@
         <v>13002951.61763359</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13964,7 +13964,7 @@
         <v>13002981.61763359</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13997,7 +13997,7 @@
         <v>12565268.74533359</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14030,7 +14030,7 @@
         <v>13306393.12803359</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14162,7 +14162,7 @@
         <v>13182236.65923359</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14195,7 +14195,7 @@
         <v>12735442.99473359</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14228,7 +14228,7 @@
         <v>12824378.45553358</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
